--- a/app/data/2023-07-21/CLIENTESDUSNEI0032023-07-21.xlsx
+++ b/app/data/2023-07-21/CLIENTESDUSNEI0032023-07-21.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3923</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>ANDIRá</t>
@@ -531,11 +527,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3980</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>CASTRO</t>
@@ -578,11 +570,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4086</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>JATAIZINHO</t>
@@ -625,11 +613,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>BELA VISTA DO PARAíSO</t>
@@ -672,11 +656,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4283</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>TELêMACO BORBA</t>
@@ -719,11 +699,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>TIBAGI</t>
@@ -766,11 +742,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4005</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>CURIúVA</t>
@@ -813,11 +785,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3927</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>APUCARANA</t>
@@ -860,11 +828,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>LONDRINA</t>
@@ -907,11 +871,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>LONDRINA</t>
@@ -954,11 +914,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>LONDRINA</t>
@@ -1001,11 +957,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4049</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>IBAITI</t>
@@ -1027,6 +979,49 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>76185</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>STAR HOUSE CHIKEN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CAMBARá</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>86390000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cbé-Orivaldo José</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
